--- a/gzdw_desk-master/matlab_lib/code_shiji/plot_data.xlsx
+++ b/gzdw_desk-master/matlab_lib/code_shiji/plot_data.xlsx
@@ -19,46 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
-  <si>
-    <t>节点编号</t>
-  </si>
-  <si>
-    <t>消纳率</t>
-  </si>
-  <si>
-    <t>线路编号</t>
-  </si>
-  <si>
-    <t>传输容量</t>
-  </si>
-  <si>
-    <t>线路编号</t>
-  </si>
-  <si>
-    <t>容量限值</t>
-  </si>
-  <si>
-    <t>关键线路编号</t>
-  </si>
-  <si>
-    <t>关键线路容量</t>
-  </si>
-  <si>
-    <t>节点编号</t>
-  </si>
-  <si>
-    <t>消纳提升</t>
-  </si>
-  <si>
-    <t>节点编号</t>
-  </si>
-  <si>
-    <t>响应前消纳率</t>
-  </si>
-  <si>
-    <t>响应后消纳率</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>节点编号</t>
   </si>
@@ -234,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -260,23 +221,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -296,18 +245,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,27 +254,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.16796875" customWidth="true"/>
-    <col min="4" max="4" width="11.16796875" customWidth="true"/>
-    <col min="5" max="5" width="11.16796875" customWidth="true"/>
-    <col min="6" max="6" width="25.16796875" customWidth="true"/>
-    <col min="7" max="7" width="25.16796875" customWidth="true"/>
+    <col min="3" max="3" width="25.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -348,19 +281,7 @@
         <v>77.473598273300709</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -370,6 +291,9 @@
       <c r="B3" s="0">
         <v>49.999999998907079</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -378,6 +302,9 @@
       <c r="B4" s="0">
         <v>29.999999944886106</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -385,6 +312,14 @@
       </c>
       <c r="B5" s="0">
         <v>61.992066661511799</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -403,13 +338,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -420,7 +355,7 @@
         <v>16.979734980263974</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -431,7 +366,7 @@
         <v>16.979734980263974</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +377,7 @@
         <v>60.354408485290222</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -453,7 +388,7 @@
         <v>60.354408485290222</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -464,7 +399,7 @@
         <v>54.967932576938381</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -475,7 +410,7 @@
         <v>34.673332692430947</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +421,7 @@
         <v>34.673332692430947</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +432,7 @@
         <v>41.200077669829696</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +443,7 @@
         <v>41.200077669829696</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -519,7 +454,7 @@
         <v>19.99999962916927</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +465,7 @@
         <v>5.419915068867641</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -541,7 +476,7 @@
         <v>5.419915068867641</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +487,7 @@
         <v>8.0446692384817382</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -563,7 +498,7 @@
         <v>8.0446692384817382</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +509,7 @@
         <v>25.495097567963924</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -585,7 +520,7 @@
         <v>35.935070345775657</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -596,7 +531,7 @@
         <v>18.646175255591604</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -607,7 +542,7 @@
         <v>21.788249943701327</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +553,7 @@
         <v>21.788249943701327</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -629,7 +564,7 @@
         <v>8.9205871009969311</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -640,7 +575,7 @@
         <v>18.736880873699512</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -651,7 +586,7 @@
         <v>59.999999998688487</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -662,7 +597,7 @@
         <v>41.538858045756328</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -673,7 +608,7 @@
         <v>59.999999889772205</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -684,7 +619,7 @@
         <v>4.5627600973339204</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -695,7 +630,7 @@
         <v>17.797107812919798</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -706,7 +641,7 @@
         <v>29.999999997210313</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +652,7 @@
         <v>3.003989090731054</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -735,10 +670,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -980,10 +915,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -1017,10 +952,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1165,31 +1100,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.16796875" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.16796875" customWidth="true"/>
-    <col min="5" max="5" width="11.16796875" customWidth="true"/>
-    <col min="6" max="6" width="11.16796875" customWidth="true"/>
-    <col min="7" max="7" width="25.16796875" customWidth="true"/>
-    <col min="8" max="8" width="25.16796875" customWidth="true"/>
+    <col min="4" max="4" width="25.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -1203,19 +1134,7 @@
         <v>77.473599457250074</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1228,6 +1147,9 @@
       <c r="C3" s="0">
         <v>49.99999999884313</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -1239,6 +1161,9 @@
       <c r="C4" s="0">
         <v>34.999999997057508</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -1250,6 +1175,14 @@
       <c r="C5" s="0">
         <v>61.992066002753432</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
